--- a/data/trans_dic/P62A$jubilacion-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,55; 93,94</t>
+          <t>75,03; 94,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,36; 77,72</t>
+          <t>55,82; 79,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,84; 90,36</t>
+          <t>68,79; 89,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,98; 76,44</t>
+          <t>44,54; 77,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,8; 61,1</t>
+          <t>27,79; 60,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,3; 50,0</t>
+          <t>27,48; 50,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,17; 57,09</t>
+          <t>30,28; 57,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 30,12</t>
+          <t>9,1; 29,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,06; 78,15</t>
+          <t>58,59; 77,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,87; 62,09</t>
+          <t>45,64; 63,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,52; 71,44</t>
+          <t>51,98; 71,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,58; 49,05</t>
+          <t>27,78; 48,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,87; 89,28</t>
+          <t>75,49; 89,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,35; 80,19</t>
+          <t>63,56; 79,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,34; 85,21</t>
+          <t>72,05; 85,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,18; 72,58</t>
+          <t>56,51; 73,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 36,38</t>
+          <t>16,68; 36,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 24,33</t>
+          <t>8,43; 23,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 40,16</t>
+          <t>20,49; 39,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 31,84</t>
+          <t>20,18; 31,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,51; 67,3</t>
+          <t>53,57; 67,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,98; 56,46</t>
+          <t>41,82; 56,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>53,41; 66,31</t>
+          <t>53,09; 66,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,93; 52,25</t>
+          <t>40,79; 51,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,64; 97,19</t>
+          <t>83,43; 97,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,05; 86,3</t>
+          <t>64,73; 86,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,86; 96,08</t>
+          <t>84,09; 96,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,43; 68,09</t>
+          <t>51,1; 67,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,49; 49,44</t>
+          <t>25,87; 49,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,49; 49,09</t>
+          <t>24,92; 48,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,42; 73,11</t>
+          <t>49,66; 72,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,47; 44,19</t>
+          <t>28,42; 43,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>56,72; 73,38</t>
+          <t>58,0; 74,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,5; 65,59</t>
+          <t>48,9; 65,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>70,44; 83,84</t>
+          <t>70,79; 84,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,48; 54,94</t>
+          <t>43,55; 54,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,53; 97,17</t>
+          <t>84,19; 97,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,91; 84,81</t>
+          <t>67,34; 85,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,55; 90,29</t>
+          <t>74,72; 90,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,46; 93,58</t>
+          <t>77,23; 93,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,49; 56,61</t>
+          <t>32,14; 55,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,1; 53,22</t>
+          <t>33,25; 52,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,2; 60,41</t>
+          <t>36,69; 60,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,78; 60,39</t>
+          <t>44,9; 59,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,99; 76,22</t>
+          <t>59,78; 75,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,96; 67,29</t>
+          <t>53,26; 67,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,58; 75,23</t>
+          <t>60,23; 74,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,85; 75,51</t>
+          <t>63,23; 75,1</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,16; 95,79</t>
+          <t>76,65; 95,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,51; 91,41</t>
+          <t>68,73; 90,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,53; 90,62</t>
+          <t>72,67; 90,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,36; 57,93</t>
+          <t>34,12; 58,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,08; 54,7</t>
+          <t>21,1; 57,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,29; 54,97</t>
+          <t>25,77; 54,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 39,93</t>
+          <t>15,8; 39,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 40,87</t>
+          <t>24,54; 41,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55,17; 75,77</t>
+          <t>55,12; 76,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,39; 71,28</t>
+          <t>50,73; 70,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,0; 65,64</t>
+          <t>47,47; 64,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,24; 46,06</t>
+          <t>31,16; 46,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,31; 100,0</t>
+          <t>88,26; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,43; 90,74</t>
+          <t>72,54; 90,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,15; 93,36</t>
+          <t>77,3; 93,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,55; 67,68</t>
+          <t>50,57; 67,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,25; 45,89</t>
+          <t>17,81; 47,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,46; 44,21</t>
+          <t>20,58; 45,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,43; 50,55</t>
+          <t>19,25; 50,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,37; 27,68</t>
+          <t>14,75; 28,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,79; 76,13</t>
+          <t>59,34; 76,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,91; 68,52</t>
+          <t>51,74; 69,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57,17; 75,02</t>
+          <t>57,73; 75,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,18; 48,84</t>
+          <t>37,18; 48,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,6; 96,75</t>
+          <t>87,81; 96,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,53; 84,23</t>
+          <t>69,93; 83,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,39; 92,87</t>
+          <t>81,31; 92,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,75; 69,76</t>
+          <t>55,83; 69,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,69; 51,03</t>
+          <t>31,51; 49,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,21; 48,27</t>
+          <t>31,31; 47,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,73; 53,9</t>
+          <t>37,08; 54,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,56; 94,7</t>
+          <t>48,38; 94,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>63,37; 74,89</t>
+          <t>63,98; 75,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>52,18; 64,85</t>
+          <t>53,44; 64,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>60,8; 71,93</t>
+          <t>59,68; 72,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,85; 92,56</t>
+          <t>55,97; 92,06</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,27; 90,76</t>
+          <t>78,7; 90,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,92; 82,98</t>
+          <t>69,13; 81,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,77; 85,35</t>
+          <t>73,76; 85,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,41; 19,64</t>
+          <t>11,17; 19,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,26; 55,89</t>
+          <t>37,41; 55,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,9; 46,42</t>
+          <t>29,93; 45,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,13; 53,84</t>
+          <t>36,93; 54,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,34; 18,14</t>
+          <t>10,72; 18,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63,02; 74,28</t>
+          <t>62,95; 74,04</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>53,54; 64,9</t>
+          <t>54,43; 65,03</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>58,73; 68,82</t>
+          <t>59,33; 69,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,99</t>
+          <t>12,16; 17,63</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>86,66; 91,18</t>
+          <t>86,54; 91,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>73,21; 79,28</t>
+          <t>73,16; 79,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>81,03; 86,07</t>
+          <t>80,8; 86,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>49,19; 55,56</t>
+          <t>49,18; 55,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,11; 43,37</t>
+          <t>35,09; 43,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,34; 39,53</t>
+          <t>31,81; 39,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>39,17; 47,07</t>
+          <t>39,38; 47,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,7; 71,69</t>
+          <t>30,59; 72,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>64,7; 69,99</t>
+          <t>64,44; 69,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54,96; 60,06</t>
+          <t>55,07; 60,04</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63,1; 67,69</t>
+          <t>63,01; 67,74</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>41,75; 67,16</t>
+          <t>41,78; 65,94</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de jubilación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45499</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52107</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47053</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15162</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15464</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26091</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23921</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5533</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>60963</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78198</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70974</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20695</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39604; 49805</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42469; 60505</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40074; 52165</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10800; 18711</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9871; 21497</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18909; 34722</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16647; 31820</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2834; 9029</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>51737; 68604</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>66129; 92203</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58859; 80940</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15388; 26987</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>100889</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>95744</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>117624</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87387</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20057</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13858</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26312</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31696</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>120946</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>109602</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>143937</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>119083</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>91291; 108725</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>84118; 104889</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>107047; 127284</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76189; 99308</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13215; 28749</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7490; 21147</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18773; 36613</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24628; 38979</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>107201; 135114</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92520; 125273</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>127520; 159388</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104780; 133088</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68570</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63187</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>82267</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55253</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24501</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27377</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49422</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93070</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>90564</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>131690</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>85513</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>62345; 72624</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>53234; 71157</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>75629; 86448</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46903; 62247</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17191; 32727</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18831; 36640</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39679; 58226</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23797; 36408</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>81889; 105337</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>77163; 103112</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>120232; 143610</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76429; 96036</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64297</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>78886</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80652</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>68563</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28795</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>43189</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37628</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>93092</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>122076</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>118279</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>111227</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>58919; 68025</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>68942; 87178</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72143; 87133</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>61025; 73945</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20843; 36073</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33484; 53041</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28408; 46926</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36235; 48239</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>80599; 102212</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>108159; 137299</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>104792; 129884</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100984; 119951</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>39863</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40606</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>55276</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14401</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12962</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18622</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15614</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13572</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>52825</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>59228</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>70890</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27972</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>34695; 43439</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34331; 45320</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48483; 60582</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10714; 18365</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7373; 19932</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12118; 25660</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9039; 22845</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10224; 17285</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44210; 61011</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49190; 68366</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>58827; 80447</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22761; 34222</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>61089</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>62064</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>64096</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>47186</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14869</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19330</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14985</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12453</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>75958</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>81394</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>79081</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>59639</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55792; 63214</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>53915; 67333</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>57153; 69191</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>40423; 53627</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8465; 22396</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12371; 27119</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8528; 22268</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8842; 16916</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>65712; 85211</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>69550; 93514</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>68258; 89155</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>52009; 68349</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>133458</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>123615</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>134611</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>100078</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>48583</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>58703</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>69113</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>275217</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>182042</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>182317</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>203724</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>375295</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>125419; 138172</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>111266; 133639</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>124950; 142249</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>88593; 110822</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37473; 59406</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>47005; 71957</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>56620; 82763</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>166370; 324622</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>167481; 197265</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>165264; 200587</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>182848; 221098</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>281293; 462687</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>143634</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>149650</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>171041</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>30350</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>59901</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>58815</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>81219</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>24687</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>203535</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>208464</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>252260</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>55038</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>132330; 151382</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>134592; 159590</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>157538; 181642</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>22509; 39237</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>48126; 71078</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>46341; 71123</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>66078; 96701</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>18701; 32625</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>186821; 219746</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>190252; 227291</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>232879; 271720</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>45719; 66299</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>657299</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>665857</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>752619</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>418379</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>225132</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>265986</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>318213</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>436084</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>882431</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>931843</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1070832</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>854463</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>638560; 673151</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>637330; 689653</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>728215; 776258</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>394198; 442602</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>202158; 248046</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>237356; 293882</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>290214; 347978</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>286820; 680323</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>846704; 915506</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>890632; 970909</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1032356; 1109783</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>726665; 1146732</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>